--- a/Documentation/接口交互文档版本记录/数据对比接口交互.xlsx
+++ b/Documentation/接口交互文档版本记录/数据对比接口交互.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,19 +70,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>良率晶圆图/色阶晶圆图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直方图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Histogram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色阶晶圆取数据时，不取参数为ALL的情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -120,6 +112,75 @@
   <si>
     <t>waferIdStr：晶圆主键拼接成的字符串，英文逗号分隔，首尾不为逗号
 paramAtt：选择的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良率晶圆图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色阶晶圆图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColorMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataListAjax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶圆信息获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentPage：当前页；
+keyword：关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correlation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferIdStr：晶圆主键拼接成的字符串，英文逗号分隔，首尾不为逗号；
+paramX；paramY；
+minX，minY,maxX,maxY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：晶圆主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型，
+true:能够访问；
+false：不能访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验所选晶圆是否能够绘图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Examine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +225,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +244,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -250,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,6 +349,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,15 +651,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="64.875" customWidth="1"/>
@@ -632,123 +705,185 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="43.5" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="43.5" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="43.5" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="68.25" customHeight="1">
+    <row r="8" spans="1:6" ht="43.5" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="72.75" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
+    <row r="9" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+    <row r="10" spans="1:6" ht="68.25" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="68.25" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="72.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
